--- a/biology/Botanique/Maison_de_New_Place/Maison_de_New_Place.xlsx
+++ b/biology/Botanique/Maison_de_New_Place/Maison_de_New_Place.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison de New Place était la maison du XVe siècle de style Tudor et le jardin de Stratford-upon-Avon dans le Warwickshire en Angleterre, où le poète, dramaturge et écrivain William Shakespeare (1564-1616) a passé ses années de retraite de 1610 à sa disparition en 1616. Il n'en reste à ce jour que les fondations et le jardin.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1483, le riche marchand et futur lord-maire de Londres, Hugh Clopton, fait construire cette imposante demeure à Stratford-upon-Avon.  
 En 1597, William Shakespeare achète cette demeure dans le village de ses racines familiales et y passe sa retraite de 1610 jusqu'à sa disparition en 1616. Sa fille Susanna en hérite, puis sa petite fille Elizabeth Hall. Cette dernière épouse Thomas Nash, propriétaire de la maison de Nash voisine.
